--- a/output/fit_clients/fit_round_322.xlsx
+++ b/output/fit_clients/fit_round_322.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1580345103.667024</v>
+        <v>1974596494.972048</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1100003707785253</v>
+        <v>0.07172874471786149</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03401002483277012</v>
+        <v>0.02761095130169001</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>790172491.0236455</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2325663739.309524</v>
+        <v>2597559861.215323</v>
       </c>
       <c r="F3" t="n">
-        <v>0.155716358470923</v>
+        <v>0.1765355119121009</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04740331391496491</v>
+        <v>0.04610426389267009</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1162831960.157319</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4527181688.02896</v>
+        <v>4512033351.888102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1491696834362292</v>
+        <v>0.1613647387503218</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02734608633921748</v>
+        <v>0.02484651237715615</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>116</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2263590895.540975</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3562094849.757823</v>
+        <v>4100497088.152503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07105485897226609</v>
+        <v>0.09397309635775762</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04488981407015671</v>
+        <v>0.03127481067561992</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>122</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1781047457.553329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2134017382.798763</v>
+        <v>2248436374.471356</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1163053875784492</v>
+        <v>0.1320438301271359</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04736720034719576</v>
+        <v>0.03588271659862428</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>61</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1067008706.494468</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3131380468.484956</v>
+        <v>2978381751.203865</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09217924767761976</v>
+        <v>0.07666200092481429</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04596220383196773</v>
+        <v>0.03473103653365386</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>99</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1565690186.48008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2670174877.839531</v>
+        <v>3103662298.654592</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1366705385137794</v>
+        <v>0.2131152436221291</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03103639377321416</v>
+        <v>0.02833768856935442</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>103</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1335087462.719387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2304953715.739018</v>
+        <v>1786086134.653922</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1950399559666696</v>
+        <v>0.1307774343929863</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03612971286316439</v>
+        <v>0.03224460933448565</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1152476842.169901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5152999267.921284</v>
+        <v>3765109279.044845</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1357005107895693</v>
+        <v>0.1866121128807621</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0451676244409637</v>
+        <v>0.03338950449626302</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>135</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2576499745.11361</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3413925687.966844</v>
+        <v>2646032654.984397</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1865262732210043</v>
+        <v>0.1871279142519484</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04075518059062264</v>
+        <v>0.04772555608522137</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>132</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1706962815.767275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3096197103.69442</v>
+        <v>2409162137.909268</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1979827220601693</v>
+        <v>0.1786740097799034</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03399605053904715</v>
+        <v>0.04173592792712584</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>109</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1548098578.658008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4163441371.8322</v>
+        <v>4043979225.825216</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0876676042246244</v>
+        <v>0.09242428995627505</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02305797647639057</v>
+        <v>0.02381323742440776</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>107</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2081720732.548366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2644707989.110981</v>
+        <v>3659586921.756003</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1184346592047385</v>
+        <v>0.1748536128802738</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03109359655987241</v>
+        <v>0.04071363288693803</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>103</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1322354054.731559</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1181134586.307432</v>
+        <v>1794198824.616606</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1001492444215359</v>
+        <v>0.08433577439803204</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04669954187154423</v>
+        <v>0.03672812593574156</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>590567306.3702242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2317567553.466754</v>
+        <v>2218912589.025804</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1118079738657992</v>
+        <v>0.1053901357864211</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03350873702244934</v>
+        <v>0.04676065823723341</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>63</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1158783823.855365</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3802702029.365029</v>
+        <v>3892613437.985082</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1093936050388358</v>
+        <v>0.1572705270454028</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03846053423187133</v>
+        <v>0.0357344797332792</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>94</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1901351059.047407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2945412190.426018</v>
+        <v>3276880506.037639</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1818336307953818</v>
+        <v>0.148995400329801</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02550669712252372</v>
+        <v>0.02602012139703612</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>105</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1472706129.407238</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>847870972.2859423</v>
+        <v>1069533233.446256</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1154398887204608</v>
+        <v>0.1226869969888203</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02451873321721097</v>
+        <v>0.01877285085806402</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>423935478.3467453</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1885855772.306809</v>
+        <v>2547552338.956198</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1442722123084262</v>
+        <v>0.1264553572540411</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03186612468070639</v>
+        <v>0.02768859670517029</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>942927924.6744727</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1808707610.30548</v>
+        <v>1900015917.904038</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08113808533362826</v>
+        <v>0.0959839553721802</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04191075919586346</v>
+        <v>0.03792008151958143</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>904353859.4258311</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3109385068.566965</v>
+        <v>3443736408.744183</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1422111897043299</v>
+        <v>0.09822132058778808</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03768984902967547</v>
+        <v>0.05615533138696262</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>90</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1554692589.271547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>971994656.5945559</v>
+        <v>1173379160.186883</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1190029481304511</v>
+        <v>0.1303823846911299</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04919818035771305</v>
+        <v>0.04780966082126409</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>485997403.2072809</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3964908671.208497</v>
+        <v>2899935006.372642</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1067138631711796</v>
+        <v>0.1068337831738705</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02818240600716519</v>
+        <v>0.03550708742514537</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>94</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1982454305.95803</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>967282220.0038501</v>
+        <v>1368161145.131969</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07514268829024869</v>
+        <v>0.1167643048338084</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02080304337355332</v>
+        <v>0.02657619224117589</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>483641181.5240349</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1283751310.570391</v>
+        <v>1345617586.51657</v>
       </c>
       <c r="F26" t="n">
-        <v>0.108934673859795</v>
+        <v>0.1231074609918774</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03699080880008823</v>
+        <v>0.02890746389642056</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>641875696.8277553</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3988820715.128476</v>
+        <v>4020188023.157505</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1401599595326</v>
+        <v>0.1534362359347477</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01759842559736678</v>
+        <v>0.02101958041288221</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>84</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1994410368.254875</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2986577009.810359</v>
+        <v>2986342458.036767</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1204896669743522</v>
+        <v>0.1350263093958567</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04312485182938005</v>
+        <v>0.04043994477969299</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>107</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1493288514.953054</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4861996107.91975</v>
+        <v>4952536425.48166</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1319233014119279</v>
+        <v>0.1237538403153638</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03186131142396999</v>
+        <v>0.02854308475638078</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>141</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2430998011.090509</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1647791346.308549</v>
+        <v>2130926657.330532</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1163795391844351</v>
+        <v>0.09919194814141638</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0387901027667955</v>
+        <v>0.0366397896891256</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>823895670.479717</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1488118917.10238</v>
+        <v>949030349.4236065</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1122646556429979</v>
+        <v>0.07073558894624477</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03773480687697345</v>
+        <v>0.04608511940797654</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>744059342.2066257</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1426226552.78425</v>
+        <v>1310341306.54758</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1179382854539912</v>
+        <v>0.1072036393693603</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02397694998158528</v>
+        <v>0.02860403500700575</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>713113329.4468814</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2671386177.900596</v>
+        <v>3047597512.841018</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1404157680140031</v>
+        <v>0.1558216725001121</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05576621895713207</v>
+        <v>0.05933973695765772</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>95</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1335693112.551715</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1435534611.90626</v>
+        <v>1277911483.665268</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1207842722461417</v>
+        <v>0.07827587631126756</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02844419238830682</v>
+        <v>0.02289774714835466</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>717767272.3695762</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>884697718.5376382</v>
+        <v>989619062.9479455</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0981561427538578</v>
+        <v>0.1056848360977684</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03347464612811719</v>
+        <v>0.04220717855583071</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>442348903.1226585</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2993101385.123367</v>
+        <v>3049013999.534892</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1766359420094614</v>
+        <v>0.1763403397489879</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01841632559517377</v>
+        <v>0.01792066753618159</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>80</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1496550675.043778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1890704256.543509</v>
+        <v>2227979723.731818</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09882545458813248</v>
+        <v>0.1008223347036658</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03993856700088896</v>
+        <v>0.04148549931720248</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>86</v>
-      </c>
-      <c r="J37" t="n">
-        <v>945352140.517414</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2061969967.948522</v>
+        <v>1825083705.379002</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07653521445335612</v>
+        <v>0.1156852150718843</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02691084943203412</v>
+        <v>0.03270544091597156</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1030984953.848906</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2103249293.098338</v>
+        <v>2054335678.745343</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1930051541471953</v>
+        <v>0.1854089729608952</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02464664751466388</v>
+        <v>0.02459784197331012</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1051624625.445957</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1166504926.050618</v>
+        <v>1196343698.975674</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1290178392611891</v>
+        <v>0.1273324536897703</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06037414947258832</v>
+        <v>0.0495417829238624</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>583252512.6902267</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2311656346.122967</v>
+        <v>2564710142.713562</v>
       </c>
       <c r="F41" t="n">
-        <v>0.11532360862392</v>
+        <v>0.108067789858756</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03554535294922078</v>
+        <v>0.03620073791665483</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>81</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1155828216.762602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3716516883.588526</v>
+        <v>3831799700.000311</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1252150720923559</v>
+        <v>0.1173160612634146</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04402620473780536</v>
+        <v>0.04157626103330635</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1858258451.583389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2519838473.970247</v>
+        <v>2240236899.515381</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1508505824674143</v>
+        <v>0.1460347356407816</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01948309351061575</v>
+        <v>0.01742250762113343</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>115</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1259919283.657501</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1625407463.869481</v>
+        <v>1954012981.90098</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08395276239926941</v>
+        <v>0.08418831716624617</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02645877355103396</v>
+        <v>0.02281124892580307</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>812703763.5331044</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1927152318.561082</v>
+        <v>2286388151.783839</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1783001442227444</v>
+        <v>0.1942292745122206</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04742201623174549</v>
+        <v>0.05588736831975735</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>963576142.844944</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5264634124.586697</v>
+        <v>4059756234.563117</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1506643879995957</v>
+        <v>0.1279990125028229</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03884575928767734</v>
+        <v>0.04105073473966402</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>114</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2632317104.247159</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5082821392.46307</v>
+        <v>4679241338.766057</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1637941168543207</v>
+        <v>0.149510712772303</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0410849683781655</v>
+        <v>0.03686235575814379</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>86</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2541410756.715453</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3932860112.242875</v>
+        <v>3458743180.15373</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08579846781173397</v>
+        <v>0.06770633077324877</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0389944753578069</v>
+        <v>0.03264147620825188</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1966430094.398527</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1486315232.307707</v>
+        <v>1841836076.8971</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1894305604073104</v>
+        <v>0.1681007677598058</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03809847974812917</v>
+        <v>0.04149032888240642</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>743157650.318565</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3758609299.006701</v>
+        <v>3440044473.47775</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1740090113834208</v>
+        <v>0.1582333318926739</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04924686215694418</v>
+        <v>0.03859711230445052</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>109</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1879304655.387242</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>931869089.991267</v>
+        <v>1396925646.453834</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1910203507130971</v>
+        <v>0.1193053974909472</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04451937003357873</v>
+        <v>0.0450706274647504</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>465934640.0112464</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3346489193.418866</v>
+        <v>3358625353.234745</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08425862303472716</v>
+        <v>0.1049893193337996</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04010427324950422</v>
+        <v>0.05802920695988081</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>132</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1673244691.657004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2433817620.165014</v>
+        <v>2981350629.168308</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1944253524045951</v>
+        <v>0.1355986563852884</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02993651644985442</v>
+        <v>0.03133632979193484</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1216908881.637956</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4491936471.893244</v>
+        <v>4167625915.650342</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1150853237108224</v>
+        <v>0.110063523169577</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03538137163747021</v>
+        <v>0.03229310443043683</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>106</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2245968338.66923</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3935452560.456773</v>
+        <v>4520772905.313311</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1974616759334934</v>
+        <v>0.2224278699781443</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02234938092195304</v>
+        <v>0.02790373189841567</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1967726252.273609</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1822575179.468654</v>
+        <v>1678055281.154685</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1025852452649383</v>
+        <v>0.1643172148623274</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05209033154300918</v>
+        <v>0.04305657416059545</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>911287584.1950541</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3077878026.578075</v>
+        <v>3385896501.63023</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1809989499847411</v>
+        <v>0.1124981519793457</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02508506710344476</v>
+        <v>0.01997810103831439</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>102</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1538939024.235743</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1687928690.788836</v>
+        <v>1796069199.754045</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1887888003496016</v>
+        <v>0.1525245648015386</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03118041037761349</v>
+        <v>0.02740776758438434</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>843964359.3874154</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5172757174.084315</v>
+        <v>3983722299.918752</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1177190357390766</v>
+        <v>0.1069292711483348</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0388108065864193</v>
+        <v>0.03862228871727028</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>90</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2586378506.421865</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3387314017.434535</v>
+        <v>2480410915.405747</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1589469048332298</v>
+        <v>0.1998338640065289</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02795110499384353</v>
+        <v>0.03229866981453751</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>102</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1693657119.699548</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2629469458.326599</v>
+        <v>2647853318.644103</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1494721657497201</v>
+        <v>0.125284771714315</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02015961719134222</v>
+        <v>0.02098793047418891</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>110</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1314734744.571988</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1828677594.427554</v>
+        <v>1469408026.820246</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1794581268551411</v>
+        <v>0.1753780067600565</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04585943069694811</v>
+        <v>0.03558567547095565</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>914338829.5839502</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4385218794.788989</v>
+        <v>3709990984.876666</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08865026510591073</v>
+        <v>0.07789319073653625</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03682211859108202</v>
+        <v>0.0418792807868738</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2192609442.578551</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3432316465.163219</v>
+        <v>4191640859.132183</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1441108311661284</v>
+        <v>0.131641860028502</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02517996359599699</v>
+        <v>0.03094593965432766</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>100</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1716158228.521783</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5884860579.240615</v>
+        <v>4139514587.868091</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1728165634559692</v>
+        <v>0.1421116318148032</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02238798202904207</v>
+        <v>0.02085611228814895</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>116</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2942430195.731965</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3534202387.312576</v>
+        <v>3733351422.609046</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1015087236326201</v>
+        <v>0.1128031851206001</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0391689169159349</v>
+        <v>0.0463876122135248</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>94</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1767101142.261507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3082447652.144979</v>
+        <v>2721111385.865197</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08944188473099558</v>
+        <v>0.06648625679509872</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03977797787895121</v>
+        <v>0.03544260557326985</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>102</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1541223837.383288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5944003746.992539</v>
+        <v>5307571949.54173</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1465656287245293</v>
+        <v>0.1067164200283591</v>
       </c>
       <c r="G68" t="n">
-        <v>0.042210346693942</v>
+        <v>0.04718022010206004</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>105</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2972001987.091751</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1547159832.641784</v>
+        <v>2061577470.026706</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1187999268600929</v>
+        <v>0.1786340013798048</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04365839137912499</v>
+        <v>0.05131203387261972</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>773579862.716769</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3206587284.497406</v>
+        <v>2552953859.08975</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09733338124439345</v>
+        <v>0.07062198406699358</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04134688118976625</v>
+        <v>0.04749346228901279</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>92</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1603293632.647824</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5637455997.152409</v>
+        <v>5435878986.818602</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1274948961421084</v>
+        <v>0.1493494972713954</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03330826673302262</v>
+        <v>0.02367281919393266</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>116</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2818728151.861773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1795885766.322127</v>
+        <v>1486571913.415447</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0939070413666255</v>
+        <v>0.09286853419817315</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04814276482877322</v>
+        <v>0.04320987728416487</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>897942862.4028829</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3552357293.883894</v>
+        <v>3164129158.295093</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07795319371565357</v>
+        <v>0.09679142611010084</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05024967844505945</v>
+        <v>0.04834325269770702</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>123</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1776178592.342511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3597584649.311923</v>
+        <v>3200347302.74276</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1715646597406398</v>
+        <v>0.1306329735416892</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02875391705253277</v>
+        <v>0.02536619720613941</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>109</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1798792338.419242</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1987337329.895289</v>
+        <v>2341073266.330679</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1132186284176138</v>
+        <v>0.152741460672506</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03094643587008331</v>
+        <v>0.02877177486083682</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>993668630.3877742</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4130115140.924408</v>
+        <v>3930498996.873128</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07575857029404673</v>
+        <v>0.08382961864618783</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02876246075079058</v>
+        <v>0.03280904279127914</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2065057560.663433</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1509790339.006447</v>
+        <v>2120237827.531644</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1730069418966073</v>
+        <v>0.1560306875109483</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02497871326508538</v>
+        <v>0.02239043481530481</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>754895158.6008246</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3294379223.08489</v>
+        <v>3415706329.65128</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08251170259752282</v>
+        <v>0.127959163250607</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03672119422717567</v>
+        <v>0.04987696132866411</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>111</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1647189627.772892</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1461501978.868951</v>
+        <v>1721885985.294223</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1396496097397951</v>
+        <v>0.1083104065209689</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02582994994974212</v>
+        <v>0.03990102958769319</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>730751016.8825836</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3507448466.502695</v>
+        <v>5207129852.388482</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08043257315710904</v>
+        <v>0.06912719915043448</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03653019485539576</v>
+        <v>0.03505584889222003</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1753724208.228133</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4286009411.736242</v>
+        <v>4160588478.20508</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1215658783774265</v>
+        <v>0.1289962310734234</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02569471399902409</v>
+        <v>0.03049638217903177</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2143004679.715416</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4639396408.657688</v>
+        <v>3530703502.249931</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1960694871845934</v>
+        <v>0.153714586146546</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01962190943344347</v>
+        <v>0.02885212892085343</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>112</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2319698208.422353</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2259308142.431226</v>
+        <v>2286340512.40802</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1001967682040501</v>
+        <v>0.1193097602275087</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03984994313323008</v>
+        <v>0.03978073936027484</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1129654088.836101</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1773612328.684228</v>
+        <v>1886905302.724962</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1068334689650506</v>
+        <v>0.1167041714877937</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03955305296051349</v>
+        <v>0.04852240656511164</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>886806202.5502603</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2218613184.788268</v>
+        <v>2276043076.331278</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1266673384211205</v>
+        <v>0.16942511266736</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03772562836849629</v>
+        <v>0.05439670519375073</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>121</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1109306566.283767</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1782603690.598477</v>
+        <v>2066323952.973975</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1420139164196333</v>
+        <v>0.1469336633774555</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02394170401163667</v>
+        <v>0.02555444214503531</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>44</v>
-      </c>
-      <c r="J86" t="n">
-        <v>891301842.7019314</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>995541542.9347366</v>
+        <v>1410661411.149257</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1881761198424589</v>
+        <v>0.1838774145566915</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03405087715573173</v>
+        <v>0.03458651330594033</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>497770774.6530458</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2282115052.586804</v>
+        <v>2383404602.321768</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1645511166461562</v>
+        <v>0.1777738379949022</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03531027368498681</v>
+        <v>0.03548971770683179</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>127</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1141057485.807075</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2716073603.91527</v>
+        <v>3514312451.154858</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1041102278516832</v>
+        <v>0.1239314750677126</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02688063956852174</v>
+        <v>0.02965022894562303</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>109</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1358036860.874119</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1767394726.073436</v>
+        <v>1478000661.870724</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1329246140513365</v>
+        <v>0.0858690215931311</v>
       </c>
       <c r="G90" t="n">
-        <v>0.041837369336791</v>
+        <v>0.05601448962003235</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>883697390.6859753</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1543260299.416065</v>
+        <v>1721229921.094662</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1490336567688162</v>
+        <v>0.1479599253092454</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05671013634214613</v>
+        <v>0.05330400097701445</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>771630182.8546088</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2421699782.078032</v>
+        <v>2430468622.719014</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08747961395461891</v>
+        <v>0.07328642418032671</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02914686248656986</v>
+        <v>0.04109457094431247</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>87</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1210849869.070768</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3680618204.502445</v>
+        <v>3473043261.313882</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1053251436067165</v>
+        <v>0.1295249327536932</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03924674131879338</v>
+        <v>0.04052085205164017</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>102</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1840309123.525707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1874882377.741418</v>
+        <v>2149501902.975467</v>
       </c>
       <c r="F94" t="n">
-        <v>0.168532589423332</v>
+        <v>0.1148841465569927</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03159885189841947</v>
+        <v>0.03129202097448435</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>937441170.9279969</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2299027692.799065</v>
+        <v>2673903971.066709</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1322913077729501</v>
+        <v>0.1069498391425558</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04416219002062675</v>
+        <v>0.03437447614061385</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>77</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1149513897.093771</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2402471533.65375</v>
+        <v>2269640978.042821</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1401726438660615</v>
+        <v>0.1390928898852666</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03517486684379458</v>
+        <v>0.03944350766096863</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1201235710.849319</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5032109869.524396</v>
+        <v>5148188525.516528</v>
       </c>
       <c r="F97" t="n">
-        <v>0.154384816060771</v>
+        <v>0.1200021122795936</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0287258143096413</v>
+        <v>0.02417874550154442</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>103</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2516055074.144995</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2442630615.606313</v>
+        <v>2673329162.854319</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08401825046206882</v>
+        <v>0.1091016551190711</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0263398662334609</v>
+        <v>0.0279325376540428</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>89</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1221315254.69385</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2976630483.396666</v>
+        <v>2735010700.441018</v>
       </c>
       <c r="F99" t="n">
-        <v>0.139613944799985</v>
+        <v>0.1036920703104813</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0219932016311854</v>
+        <v>0.03469108203655433</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1488315225.946821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3972521062.423499</v>
+        <v>3143297216.692775</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1750107522431135</v>
+        <v>0.1791474233400849</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0243175663690189</v>
+        <v>0.01732801448302611</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>99</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1986260599.708499</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3054357183.296612</v>
+        <v>3359138745.866642</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2182683337835421</v>
+        <v>0.1775472269827915</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04028831521923273</v>
+        <v>0.05567488202098569</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>128</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1527178687.936618</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_322.xlsx
+++ b/output/fit_clients/fit_round_322.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1974596494.972048</v>
+        <v>1807906727.666272</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07172874471786149</v>
+        <v>0.07416461015967639</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02761095130169001</v>
+        <v>0.03882534367020767</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2597559861.215323</v>
+        <v>2015316173.017192</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1765355119121009</v>
+        <v>0.1166012895046468</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04610426389267009</v>
+        <v>0.03180292057299094</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4512033351.888102</v>
+        <v>4532026998.258565</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1613647387503218</v>
+        <v>0.1445868467419897</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02484651237715615</v>
+        <v>0.02346214836186854</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4100497088.152503</v>
+        <v>3134251034.921648</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09397309635775762</v>
+        <v>0.1055700783186562</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03127481067561992</v>
+        <v>0.04737190667811748</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2248436374.471356</v>
+        <v>1937152408.018609</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1320438301271359</v>
+        <v>0.1427843982241809</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03588271659862428</v>
+        <v>0.04982441337306088</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2978381751.203865</v>
+        <v>2035587502.885237</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07666200092481429</v>
+        <v>0.08908348308971201</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03473103653365386</v>
+        <v>0.04685565572649195</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3103662298.654592</v>
+        <v>2447840510.652234</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2131152436221291</v>
+        <v>0.1927044775676548</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02833768856935442</v>
+        <v>0.02413729284075207</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1786086134.653922</v>
+        <v>1542754216.839719</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1307774343929863</v>
+        <v>0.1218593412516683</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03224460933448565</v>
+        <v>0.03173902675157361</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3765109279.044845</v>
+        <v>4609189638.816188</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1866121128807621</v>
+        <v>0.1993153676276906</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03338950449626302</v>
+        <v>0.04333762673074296</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2646032654.984397</v>
+        <v>2761316337.906569</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1871279142519484</v>
+        <v>0.1428874177458467</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04772555608522137</v>
+        <v>0.04973744284270356</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2409162137.909268</v>
+        <v>2526620094.774696</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1786740097799034</v>
+        <v>0.156730121653363</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04173592792712584</v>
+        <v>0.05330950731697882</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4043979225.825216</v>
+        <v>3630813004.115586</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09242428995627505</v>
+        <v>0.07667184788163818</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02381323742440776</v>
+        <v>0.0206814421739631</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3659586921.756003</v>
+        <v>3860686726.368288</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1748536128802738</v>
+        <v>0.1395658714032465</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04071363288693803</v>
+        <v>0.02918633824845826</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1794198824.616606</v>
+        <v>1347251608.088846</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08433577439803204</v>
+        <v>0.07037302346446855</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03672812593574156</v>
+        <v>0.04050929821578816</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2218912589.025804</v>
+        <v>2878960685.187957</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1053901357864211</v>
+        <v>0.07242658549858903</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04676065823723341</v>
+        <v>0.04766577990145111</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3892613437.985082</v>
+        <v>4403105646.649426</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1572705270454028</v>
+        <v>0.1605458647932122</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0357344797332792</v>
+        <v>0.05067519927821486</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3276880506.037639</v>
+        <v>3193603769.359171</v>
       </c>
       <c r="F18" t="n">
-        <v>0.148995400329801</v>
+        <v>0.1825102651717403</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02602012139703612</v>
+        <v>0.02199136140277255</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1069533233.446256</v>
+        <v>908474361.1407629</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1226869969888203</v>
+        <v>0.1251939874968334</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01877285085806402</v>
+        <v>0.02120284997577129</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2547552338.956198</v>
+        <v>2088182766.901035</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1264553572540411</v>
+        <v>0.13462490422647</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02768859670517029</v>
+        <v>0.02043249179791572</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1900015917.904038</v>
+        <v>2382536358.481236</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0959839553721802</v>
+        <v>0.07494669708414776</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03792008151958143</v>
+        <v>0.02785046205142946</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3443736408.744183</v>
+        <v>2568499844.742926</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09822132058778808</v>
+        <v>0.1023779841050453</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05615533138696262</v>
+        <v>0.03636985149471072</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1173379160.186883</v>
+        <v>1327567891.160623</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1303823846911299</v>
+        <v>0.1661119937656</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04780966082126409</v>
+        <v>0.04589166699576313</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2899935006.372642</v>
+        <v>2633168518.495431</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1068337831738705</v>
+        <v>0.1018397741566357</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03550708742514537</v>
+        <v>0.02746357866690933</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1368161145.131969</v>
+        <v>1347563939.034569</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1167643048338084</v>
+        <v>0.08717586855681607</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02657619224117589</v>
+        <v>0.02563503190601487</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1345617586.51657</v>
+        <v>1145443589.583168</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1231074609918774</v>
+        <v>0.09349746565676313</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02890746389642056</v>
+        <v>0.02467758878343821</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4020188023.157505</v>
+        <v>4388216192.254575</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1534362359347477</v>
+        <v>0.09980773041409045</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02101958041288221</v>
+        <v>0.02545738379612215</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2986342458.036767</v>
+        <v>2375030013.627657</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1350263093958567</v>
+        <v>0.09860187827040166</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04043994477969299</v>
+        <v>0.03777710617237484</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4952536425.48166</v>
+        <v>5919219557.819556</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1237538403153638</v>
+        <v>0.1271463128632515</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02854308475638078</v>
+        <v>0.02978956634626266</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2130926657.330532</v>
+        <v>1943635163.152661</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09919194814141638</v>
+        <v>0.08740207157895863</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0366397896891256</v>
+        <v>0.0325078311601496</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>949030349.4236065</v>
+        <v>1126080459.962186</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07073558894624477</v>
+        <v>0.1031491641769247</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04608511940797654</v>
+        <v>0.04648976133800566</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1310341306.54758</v>
+        <v>1448013586.372475</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1072036393693603</v>
+        <v>0.09057734896026116</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02860403500700575</v>
+        <v>0.03291872840878202</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3047597512.841018</v>
+        <v>2755307207.240775</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1558216725001121</v>
+        <v>0.1915998333206843</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05933973695765772</v>
+        <v>0.0383565892104346</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1277911483.665268</v>
+        <v>1230097596.368346</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07827587631126756</v>
+        <v>0.09739799263409135</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02289774714835466</v>
+        <v>0.02553386545452901</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>989619062.9479455</v>
+        <v>1180887937.580945</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1056848360977684</v>
+        <v>0.117382378018073</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04220717855583071</v>
+        <v>0.02972768935334369</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3049013999.534892</v>
+        <v>2623298439.343426</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1763403397489879</v>
+        <v>0.1438801767688145</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01792066753618159</v>
+        <v>0.02861725309983978</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2227979723.731818</v>
+        <v>2748750113.957439</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1008223347036658</v>
+        <v>0.09687176686348672</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04148549931720248</v>
+        <v>0.02721229991590025</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1825083705.379002</v>
+        <v>1739213225.338411</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1156852150718843</v>
+        <v>0.1102829944916325</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03270544091597156</v>
+        <v>0.03611619951950703</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2054335678.745343</v>
+        <v>1571026108.177043</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1854089729608952</v>
+        <v>0.1551893922335113</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02459784197331012</v>
+        <v>0.02867457227693074</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1196343698.975674</v>
+        <v>1308082714.672524</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1273324536897703</v>
+        <v>0.1406897379124464</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0495417829238624</v>
+        <v>0.05450548797029381</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2564710142.713562</v>
+        <v>2640818357.421926</v>
       </c>
       <c r="F41" t="n">
-        <v>0.108067789858756</v>
+        <v>0.1662514109832675</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03620073791665483</v>
+        <v>0.04321945835228459</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3831799700.000311</v>
+        <v>2699955786.954479</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1173160612634146</v>
+        <v>0.1099722121949493</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04157626103330635</v>
+        <v>0.03053936874059385</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2240236899.515381</v>
+        <v>2170292251.798239</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1460347356407816</v>
+        <v>0.1426813331769736</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01742250762113343</v>
+        <v>0.02380235311254043</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1954012981.90098</v>
+        <v>2151997011.030043</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08418831716624617</v>
+        <v>0.09083427400504783</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02281124892580307</v>
+        <v>0.03111125376783355</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2286388151.783839</v>
+        <v>2124125905.426746</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1942292745122206</v>
+        <v>0.1206506237019117</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05588736831975735</v>
+        <v>0.04492112081631962</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4059756234.563117</v>
+        <v>4048243045.733588</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1279990125028229</v>
+        <v>0.1634262808634693</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04105073473966402</v>
+        <v>0.0557164987465708</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4679241338.766057</v>
+        <v>3407295432.655185</v>
       </c>
       <c r="F47" t="n">
-        <v>0.149510712772303</v>
+        <v>0.1863007148781424</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03686235575814379</v>
+        <v>0.04236707731237848</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3458743180.15373</v>
+        <v>4401582417.289325</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06770633077324877</v>
+        <v>0.1097443512816563</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03264147620825188</v>
+        <v>0.02451853821798504</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1841836076.8971</v>
+        <v>1333765970.803518</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1681007677598058</v>
+        <v>0.1318970950186189</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04149032888240642</v>
+        <v>0.03845278592223404</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3440044473.47775</v>
+        <v>2829635795.666392</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1582333318926739</v>
+        <v>0.173706461118446</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03859711230445052</v>
+        <v>0.04463482706488881</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1396925646.453834</v>
+        <v>1308049450.17111</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1193053974909472</v>
+        <v>0.1608209545732101</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0450706274647504</v>
+        <v>0.04771020053522997</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3358625353.234745</v>
+        <v>4103654502.204698</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1049893193337996</v>
+        <v>0.1129597966745989</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05802920695988081</v>
+        <v>0.04495041984428151</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2981350629.168308</v>
+        <v>3275973749.403239</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1355986563852884</v>
+        <v>0.135834508082151</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03133632979193484</v>
+        <v>0.02408681199070597</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4167625915.650342</v>
+        <v>4211960927.247883</v>
       </c>
       <c r="F54" t="n">
-        <v>0.110063523169577</v>
+        <v>0.1516024128019341</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03229310443043683</v>
+        <v>0.03937868529093436</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4520772905.313311</v>
+        <v>4350190632.356445</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2224278699781443</v>
+        <v>0.1662392275769559</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02790373189841567</v>
+        <v>0.02901290865922388</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1678055281.154685</v>
+        <v>1880411085.884846</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1643172148623274</v>
+        <v>0.1225251513952098</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04305657416059545</v>
+        <v>0.05068794756794712</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3385896501.63023</v>
+        <v>3058646742.904213</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1124981519793457</v>
+        <v>0.1184669656579236</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01997810103831439</v>
+        <v>0.02500707541154014</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1796069199.754045</v>
+        <v>1259497487.565076</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1525245648015386</v>
+        <v>0.1883206477150373</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02740776758438434</v>
+        <v>0.02606547304296849</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3983722299.918752</v>
+        <v>3867226267.121815</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1069292711483348</v>
+        <v>0.1158781597590379</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03862228871727028</v>
+        <v>0.03163834143070689</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2480410915.405747</v>
+        <v>2570181558.226868</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1998338640065289</v>
+        <v>0.2038941036008872</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03229866981453751</v>
+        <v>0.02667974661069702</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2647853318.644103</v>
+        <v>3365780133.095683</v>
       </c>
       <c r="F61" t="n">
-        <v>0.125284771714315</v>
+        <v>0.1374140790131528</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02098793047418891</v>
+        <v>0.02582823991034845</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1469408026.820246</v>
+        <v>2055517214.818518</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1753780067600565</v>
+        <v>0.1816513161154499</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03558567547095565</v>
+        <v>0.0307392671629204</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3709990984.876666</v>
+        <v>4682802407.661607</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07789319073653625</v>
+        <v>0.0835433232119959</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0418792807868738</v>
+        <v>0.03033865134215349</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4191640859.132183</v>
+        <v>4053996773.569819</v>
       </c>
       <c r="F64" t="n">
-        <v>0.131641860028502</v>
+        <v>0.153345954123437</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03094593965432766</v>
+        <v>0.02604327313699048</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4139514587.868091</v>
+        <v>3653487522.823065</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1421116318148032</v>
+        <v>0.1259637399009562</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02085611228814895</v>
+        <v>0.0280990636419002</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,13 +2278,13 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3733351422.609046</v>
+        <v>5201050445.703925</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1128031851206001</v>
+        <v>0.1325569057876785</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0463876122135248</v>
+        <v>0.04439355351859769</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2721111385.865197</v>
+        <v>2572187610.910756</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06648625679509872</v>
+        <v>0.08068350482357506</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03544260557326985</v>
+        <v>0.03840683394142042</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5307571949.54173</v>
+        <v>4188915769.087796</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1067164200283591</v>
+        <v>0.1113751604746501</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04718022010206004</v>
+        <v>0.03143107566271511</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2061577470.026706</v>
+        <v>2387923228.376448</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1786340013798048</v>
+        <v>0.1324530031557134</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05131203387261972</v>
+        <v>0.05883088240105485</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2552953859.08975</v>
+        <v>2915560253.193104</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07062198406699358</v>
+        <v>0.06902986545707547</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04749346228901279</v>
+        <v>0.0459147407440197</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5435878986.818602</v>
+        <v>4979907543.119281</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1493494972713954</v>
+        <v>0.1531350708416971</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02367281919393266</v>
+        <v>0.02478296086189404</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1486571913.415447</v>
+        <v>2206926115.226301</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09286853419817315</v>
+        <v>0.06877988682220361</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04320987728416487</v>
+        <v>0.04066955757066849</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3164129158.295093</v>
+        <v>2993077364.341133</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09679142611010084</v>
+        <v>0.0998358448272141</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04834325269770702</v>
+        <v>0.03901675435774038</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3200347302.74276</v>
+        <v>2848763742.349176</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1306329735416892</v>
+        <v>0.1557008996325577</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02536619720613941</v>
+        <v>0.0313665626562326</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2341073266.330679</v>
+        <v>2416072584.082815</v>
       </c>
       <c r="F75" t="n">
-        <v>0.152741460672506</v>
+        <v>0.1051562785276514</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02877177486083682</v>
+        <v>0.02742141313702194</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3930498996.873128</v>
+        <v>4251880611.233804</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08382961864618783</v>
+        <v>0.07902710824745915</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03280904279127914</v>
+        <v>0.02129377052708485</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2120237827.531644</v>
+        <v>1922242052.627573</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1560306875109483</v>
+        <v>0.1362508166335547</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02239043481530481</v>
+        <v>0.02187623652302427</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3415706329.65128</v>
+        <v>3633252120.080571</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127959163250607</v>
+        <v>0.08648599926685249</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04987696132866411</v>
+        <v>0.04984914033847194</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1721885985.294223</v>
+        <v>1828777866.897019</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1083104065209689</v>
+        <v>0.171873155422333</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03990102958769319</v>
+        <v>0.03809206804571168</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5207129852.388482</v>
+        <v>5462727302.513091</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06912719915043448</v>
+        <v>0.0787948818310904</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03505584889222003</v>
+        <v>0.0336650462962621</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4160588478.20508</v>
+        <v>3393397596.903653</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1289962310734234</v>
+        <v>0.1126222158915137</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03049638217903177</v>
+        <v>0.02185407629367947</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3530703502.249931</v>
+        <v>4928717826.710746</v>
       </c>
       <c r="F82" t="n">
-        <v>0.153714586146546</v>
+        <v>0.1883376280996722</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02885212892085343</v>
+        <v>0.023667710754073</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2286340512.40802</v>
+        <v>1883206798.937059</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1193097602275087</v>
+        <v>0.1086102718967319</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03978073936027484</v>
+        <v>0.03990254649269294</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1886905302.724962</v>
+        <v>2339322765.366645</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1167041714877937</v>
+        <v>0.09035388214560125</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04852240656511164</v>
+        <v>0.04291823627836854</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2276043076.331278</v>
+        <v>2595656571.202644</v>
       </c>
       <c r="F85" t="n">
-        <v>0.16942511266736</v>
+        <v>0.127917379720883</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05439670519375073</v>
+        <v>0.04505900954822791</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2066323952.973975</v>
+        <v>2705796375.095077</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1469336633774555</v>
+        <v>0.13822418532902</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02555444214503531</v>
+        <v>0.02522720667543276</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1410661411.149257</v>
+        <v>1386548919.785389</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1838774145566915</v>
+        <v>0.1501607730431311</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03458651330594033</v>
+        <v>0.037193946314615</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2383404602.321768</v>
+        <v>3518999423.391859</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1777738379949022</v>
+        <v>0.1078289596237177</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03548971770683179</v>
+        <v>0.03847435043185155</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3514312451.154858</v>
+        <v>3072276832.679718</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1239314750677126</v>
+        <v>0.1506419389207301</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02965022894562303</v>
+        <v>0.03125704227915503</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1478000661.870724</v>
+        <v>1938466634.057074</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0858690215931311</v>
+        <v>0.131555999149877</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05601448962003235</v>
+        <v>0.05283861960416004</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1721229921.094662</v>
+        <v>1890699815.736629</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1479599253092454</v>
+        <v>0.121147561859302</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05330400097701445</v>
+        <v>0.05126654592408114</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2430468622.719014</v>
+        <v>2417762366.980679</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07328642418032671</v>
+        <v>0.08111641468134846</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04109457094431247</v>
+        <v>0.03631039479253154</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3473043261.313882</v>
+        <v>4714450896.349524</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1295249327536932</v>
+        <v>0.1372706837349382</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04052085205164017</v>
+        <v>0.0467350670315887</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2149501902.975467</v>
+        <v>1611981287.049342</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1148841465569927</v>
+        <v>0.1448658048580783</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03129202097448435</v>
+        <v>0.03944800072283956</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2673903971.066709</v>
+        <v>2942599542.802294</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1069498391425558</v>
+        <v>0.1314789045352933</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03437447614061385</v>
+        <v>0.04690672654898744</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2269640978.042821</v>
+        <v>1849310543.523026</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1390928898852666</v>
+        <v>0.1195060629476587</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03944350766096863</v>
+        <v>0.03345520159442824</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5148188525.516528</v>
+        <v>5072705495.254697</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1200021122795936</v>
+        <v>0.1078983201313714</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02417874550154442</v>
+        <v>0.02683192447438473</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2673329162.854319</v>
+        <v>3419108979.635775</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1091016551190711</v>
+        <v>0.0972417211157969</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0279325376540428</v>
+        <v>0.02911698233672142</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2735010700.441018</v>
+        <v>2595800219.173826</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1036920703104813</v>
+        <v>0.09347549768820214</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03469108203655433</v>
+        <v>0.03324342336786471</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3143297216.692775</v>
+        <v>2933339422.270532</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1791474233400849</v>
+        <v>0.1282797268418921</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01732801448302611</v>
+        <v>0.01936621932329432</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3359138745.866642</v>
+        <v>3236318647.353215</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1775472269827915</v>
+        <v>0.1887754843603303</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05567488202098569</v>
+        <v>0.05319126408302676</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_322.xlsx
+++ b/output/fit_clients/fit_round_322.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1807906727.666272</v>
+        <v>2172660395.484649</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07416461015967639</v>
+        <v>0.1079273102940019</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03882534367020767</v>
+        <v>0.04192732270309116</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2015316173.017192</v>
+        <v>2594276261.843318</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1166012895046468</v>
+        <v>0.1187559897282515</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03180292057299094</v>
+        <v>0.04589693576344861</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4532026998.258565</v>
+        <v>5109939359.550175</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1445868467419897</v>
+        <v>0.164939563926474</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02346214836186854</v>
+        <v>0.02978048561050852</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>168</v>
+      </c>
+      <c r="J4" t="n">
+        <v>321</v>
+      </c>
+      <c r="K4" t="n">
+        <v>73.53546052680781</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3134251034.921648</v>
+        <v>3721778816.831031</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1055700783186562</v>
+        <v>0.09242702626978158</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04737190667811748</v>
+        <v>0.04772286447705332</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>129</v>
+      </c>
+      <c r="J5" t="n">
+        <v>322</v>
+      </c>
+      <c r="K5" t="n">
+        <v>78.74241776491586</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1937152408.018609</v>
+        <v>2606709359.302352</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1427843982241809</v>
+        <v>0.1405852173474677</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04982441337306088</v>
+        <v>0.05297341009662811</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2035587502.885237</v>
+        <v>2246479174.380853</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08908348308971201</v>
+        <v>0.06982234716827466</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04685565572649195</v>
+        <v>0.03044640870978138</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2447840510.652234</v>
+        <v>3400047440.678193</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1927044775676548</v>
+        <v>0.1384263996431459</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02413729284075207</v>
+        <v>0.02601918083876195</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>320</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1542754216.839719</v>
+        <v>1924764973.822357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1218593412516683</v>
+        <v>0.1330364638733832</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03173902675157361</v>
+        <v>0.03537953659087367</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4609189638.816188</v>
+        <v>4381539528.663548</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1993153676276906</v>
+        <v>0.1314759199719004</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04333762673074296</v>
+        <v>0.0532314233381115</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>280</v>
+      </c>
+      <c r="J10" t="n">
+        <v>321</v>
+      </c>
+      <c r="K10" t="n">
+        <v>72.64444756414791</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2761316337.906569</v>
+        <v>3923922145.299284</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1428874177458467</v>
+        <v>0.1784097877784493</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04973744284270356</v>
+        <v>0.03814111526142876</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>131</v>
+      </c>
+      <c r="J11" t="n">
+        <v>322</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2526620094.774696</v>
+        <v>2102291459.412289</v>
       </c>
       <c r="F12" t="n">
-        <v>0.156730121653363</v>
+        <v>0.1822251529240203</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05330950731697882</v>
+        <v>0.04773532781375376</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3630813004.115586</v>
+        <v>4255921279.312942</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07667184788163818</v>
+        <v>0.08462862919321253</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0206814421739631</v>
+        <v>0.03039322100392033</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>166</v>
+      </c>
+      <c r="J13" t="n">
+        <v>322</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3860686726.368288</v>
+        <v>3840384925.428914</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1395658714032465</v>
+        <v>0.1553815758866572</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02918633824845826</v>
+        <v>0.03566094377629157</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>322</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1347251608.088846</v>
+        <v>1425552720.704089</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07037302346446855</v>
+        <v>0.06760599411232623</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04050929821578816</v>
+        <v>0.04166283473536325</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2878960685.187957</v>
+        <v>1761195559.411539</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07242658549858903</v>
+        <v>0.1033285967561391</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04766577990145111</v>
+        <v>0.04178171547297588</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4403105646.649426</v>
+        <v>3981334426.140786</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1605458647932122</v>
+        <v>0.1496288360071942</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05067519927821486</v>
+        <v>0.03403952403543857</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>151</v>
+      </c>
+      <c r="J17" t="n">
+        <v>322</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3193603769.359171</v>
+        <v>2963361123.714771</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1825102651717403</v>
+        <v>0.1805064518747942</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02199136140277255</v>
+        <v>0.0260075044820611</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>80</v>
+      </c>
+      <c r="J18" t="n">
+        <v>321</v>
+      </c>
+      <c r="K18" t="n">
+        <v>46.98548539975243</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>908474361.1407629</v>
+        <v>1087181522.289137</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1251939874968334</v>
+        <v>0.1869695732939727</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02120284997577129</v>
+        <v>0.02710689416454322</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2088182766.901035</v>
+        <v>2312821592.198224</v>
       </c>
       <c r="F20" t="n">
-        <v>0.13462490422647</v>
+        <v>0.1418285799615263</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02043249179791572</v>
+        <v>0.0194829643226682</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2382536358.481236</v>
+        <v>2480843089.532371</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07494669708414776</v>
+        <v>0.08478181086800435</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02785046205142946</v>
+        <v>0.03435186066300226</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2568499844.742926</v>
+        <v>3374771846.573317</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1023779841050453</v>
+        <v>0.1126919340781392</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03636985149471072</v>
+        <v>0.05694747210571863</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>87</v>
+      </c>
+      <c r="J22" t="n">
+        <v>319</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1327567891.160623</v>
+        <v>1496222532.409849</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1661119937656</v>
+        <v>0.1693774778933674</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04589166699576313</v>
+        <v>0.03309125061024553</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2633168518.495431</v>
+        <v>3549048238.770871</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1018397741566357</v>
+        <v>0.1481201875645523</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02746357866690933</v>
+        <v>0.02877485280658169</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>95</v>
+      </c>
+      <c r="J24" t="n">
+        <v>322</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1347563939.034569</v>
+        <v>1375605573.382419</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08717586855681607</v>
+        <v>0.1148856155375827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02563503190601487</v>
+        <v>0.02627546125917686</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1145443589.583168</v>
+        <v>1193755137.696532</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09349746565676313</v>
+        <v>0.09380828029289104</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02467758878343821</v>
+        <v>0.02593205807413213</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4388216192.254575</v>
+        <v>4385666344.494355</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09980773041409045</v>
+        <v>0.1023189614890283</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02545738379612215</v>
+        <v>0.01819354431487006</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>133</v>
+      </c>
+      <c r="J27" t="n">
+        <v>322</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2375030013.627657</v>
+        <v>3447977440.93792</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09860187827040166</v>
+        <v>0.1390881939518849</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03777710617237484</v>
+        <v>0.04469989136737067</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>70</v>
+      </c>
+      <c r="J28" t="n">
+        <v>321</v>
+      </c>
+      <c r="K28" t="n">
+        <v>64.8136207860598</v>
       </c>
     </row>
     <row r="29">
@@ -1242,17 +1456,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5919219557.819556</v>
+        <v>4300635257.371787</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1271463128632515</v>
+        <v>0.1384026775382233</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02978956634626266</v>
+        <v>0.04379439801347951</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>296</v>
+      </c>
+      <c r="J29" t="n">
+        <v>322</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1943635163.152661</v>
+        <v>2291339837.3366</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08740207157895863</v>
+        <v>0.09451150568183303</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0325078311601496</v>
+        <v>0.03658918645356765</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1126080459.962186</v>
+        <v>1044620065.53261</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1031491641769247</v>
+        <v>0.09027537324650331</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04648976133800566</v>
+        <v>0.04458885430768039</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1448013586.372475</v>
+        <v>1680237062.424752</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09057734896026116</v>
+        <v>0.09317244090539248</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03291872840878202</v>
+        <v>0.03449922529223384</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2755307207.240775</v>
+        <v>2504868810.160505</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1915998333206843</v>
+        <v>0.1984208409204479</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0383565892104346</v>
+        <v>0.04932611479324803</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1230097596.368346</v>
+        <v>1301288367.210339</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09739799263409135</v>
+        <v>0.1158591864987803</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02553386545452901</v>
+        <v>0.02063629055928054</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1180887937.580945</v>
+        <v>1217278457.605928</v>
       </c>
       <c r="F35" t="n">
-        <v>0.117382378018073</v>
+        <v>0.08387349036810045</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02972768935334369</v>
+        <v>0.03096052948193091</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2623298439.343426</v>
+        <v>3192449442.761814</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1438801767688145</v>
+        <v>0.1782959391416097</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02861725309983978</v>
+        <v>0.02109103543382931</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2748750113.957439</v>
+        <v>2424562101.776358</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09687176686348672</v>
+        <v>0.1046175014924169</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02721229991590025</v>
+        <v>0.0360070616172868</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1739213225.338411</v>
+        <v>1984008109.293976</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1102829944916325</v>
+        <v>0.07914588477995299</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03611619951950703</v>
+        <v>0.02821162602913701</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1571026108.177043</v>
+        <v>2022914006.079763</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1551893922335113</v>
+        <v>0.1441920293209209</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02867457227693074</v>
+        <v>0.0292028021693291</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1308082714.672524</v>
+        <v>1692971948.069415</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1406897379124464</v>
+        <v>0.0980056110839065</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05450548797029381</v>
+        <v>0.04724466752242603</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2640818357.421926</v>
+        <v>2529174729.851672</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1662514109832675</v>
+        <v>0.1129520120290946</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04321945835228459</v>
+        <v>0.04300436189676078</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2699955786.954479</v>
+        <v>4039455712.651707</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1099722121949493</v>
+        <v>0.08954616541131172</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03053936874059385</v>
+        <v>0.03471603136766931</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>133</v>
+      </c>
+      <c r="J42" t="n">
+        <v>322</v>
+      </c>
+      <c r="K42" t="n">
+        <v>87.037150264932</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2170292251.798239</v>
+        <v>2092607156.979298</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1426813331769736</v>
+        <v>0.192176529005261</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02380235311254043</v>
+        <v>0.01928378434493305</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2151997011.030043</v>
+        <v>1514303007.106238</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09083427400504783</v>
+        <v>0.07909619002905031</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03111125376783355</v>
+        <v>0.03584036358057926</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2124125905.426746</v>
+        <v>1949133256.954819</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1206506237019117</v>
+        <v>0.1883757855525429</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04492112081631962</v>
+        <v>0.03704227782618365</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4048243045.733588</v>
+        <v>3926171859.87632</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1634262808634693</v>
+        <v>0.1473206259850758</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0557164987465708</v>
+        <v>0.04835795141882612</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>192</v>
+      </c>
+      <c r="J46" t="n">
+        <v>322</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3407295432.655185</v>
+        <v>4437633107.613891</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1863007148781424</v>
+        <v>0.185536333526363</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04236707731237848</v>
+        <v>0.05131062362604673</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>143</v>
+      </c>
+      <c r="J47" t="n">
+        <v>322</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4401582417.289325</v>
+        <v>4270759355.255392</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1097443512816563</v>
+        <v>0.08393074315278816</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02451853821798504</v>
+        <v>0.03693126014766157</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>160</v>
+      </c>
+      <c r="J48" t="n">
+        <v>322</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1333765970.803518</v>
+        <v>1424550255.222895</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1318970950186189</v>
+        <v>0.1352040214495038</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03845278592223404</v>
+        <v>0.03390795479071282</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2829635795.666392</v>
+        <v>2663775121.509224</v>
       </c>
       <c r="F50" t="n">
-        <v>0.173706461118446</v>
+        <v>0.1378330800970144</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04463482706488881</v>
+        <v>0.03311772916752175</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>105</v>
+      </c>
+      <c r="J50" t="n">
+        <v>320</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1308049450.17111</v>
+        <v>971503698.0187889</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1608209545732101</v>
+        <v>0.1734137674790756</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04771020053522997</v>
+        <v>0.04697793675511221</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2257,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4103654502.204698</v>
+        <v>4840752013.561438</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1129597966745989</v>
+        <v>0.1100873481433605</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04495041984428151</v>
+        <v>0.06012653227324107</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>195</v>
+      </c>
+      <c r="J52" t="n">
+        <v>321</v>
+      </c>
+      <c r="K52" t="n">
+        <v>73.12877324767639</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3275973749.403239</v>
+        <v>3603326919.902507</v>
       </c>
       <c r="F53" t="n">
-        <v>0.135834508082151</v>
+        <v>0.1622857968501038</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02408681199070597</v>
+        <v>0.02530738875440731</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>321</v>
+      </c>
+      <c r="K53" t="n">
+        <v>66.01236760854896</v>
       </c>
     </row>
     <row r="54">
@@ -1942,17 +2337,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4211960927.247883</v>
+        <v>3198396351.118511</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1516024128019341</v>
+        <v>0.1379075522058094</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03937868529093436</v>
+        <v>0.04552195847739461</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>169</v>
+      </c>
+      <c r="J54" t="n">
+        <v>320</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2366,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4350190632.356445</v>
+        <v>3538748067.777418</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1662392275769559</v>
+        <v>0.1925063619374034</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02901290865922388</v>
+        <v>0.02633991438877907</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>150</v>
+      </c>
+      <c r="J55" t="n">
+        <v>321</v>
+      </c>
+      <c r="K55" t="n">
+        <v>60.50626237290111</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1880411085.884846</v>
+        <v>1697050467.698198</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1225251513952098</v>
+        <v>0.1580161330114935</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05068794756794712</v>
+        <v>0.04545154737093014</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3058646742.904213</v>
+        <v>3281514095.060765</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1184669656579236</v>
+        <v>0.1596648704277273</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02500707541154014</v>
+        <v>0.02192781917072643</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>132</v>
+      </c>
+      <c r="J57" t="n">
+        <v>319</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1259497487.565076</v>
+        <v>1769228119.313334</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1883206477150373</v>
+        <v>0.1670462831367935</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02606547304296849</v>
+        <v>0.03870500313913917</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2514,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3867226267.121815</v>
+        <v>4585495623.052434</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1158781597590379</v>
+        <v>0.0899741459017437</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03163834143070689</v>
+        <v>0.03054821168183301</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>155</v>
+      </c>
+      <c r="J59" t="n">
+        <v>322</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2570181558.226868</v>
+        <v>2435410987.735831</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2038941036008872</v>
+        <v>0.2030920883172748</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02667974661069702</v>
+        <v>0.02672256686865206</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>55</v>
+      </c>
+      <c r="J60" t="n">
+        <v>316</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3365780133.095683</v>
+        <v>3339287298.077243</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1374140790131528</v>
+        <v>0.1563412720343967</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02582823991034845</v>
+        <v>0.02184861041354291</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>314</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2055517214.818518</v>
+        <v>1903983920.298184</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1816513161154499</v>
+        <v>0.1673980953982108</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0307392671629204</v>
+        <v>0.043634509938324</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2648,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4682802407.661607</v>
+        <v>4500450873.355105</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0835433232119959</v>
+        <v>0.08994181345213266</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03033865134215349</v>
+        <v>0.04598527756455947</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>156</v>
+      </c>
+      <c r="J63" t="n">
+        <v>322</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2683,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4053996773.569819</v>
+        <v>4639465832.703931</v>
       </c>
       <c r="F64" t="n">
-        <v>0.153345954123437</v>
+        <v>0.1187727508136612</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02604327313699048</v>
+        <v>0.02204590477356629</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>159</v>
+      </c>
+      <c r="J64" t="n">
+        <v>322</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2718,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3653487522.823065</v>
+        <v>5172284719.886755</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1259637399009562</v>
+        <v>0.114159368806533</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0280990636419002</v>
+        <v>0.02097818270391614</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>253</v>
+      </c>
+      <c r="J65" t="n">
+        <v>322</v>
+      </c>
+      <c r="K65" t="n">
+        <v>75.57648628074043</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2755,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5201050445.703925</v>
+        <v>4985804249.697238</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1325569057876785</v>
+        <v>0.1010398353131868</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04439355351859769</v>
+        <v>0.04657110535215496</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>159</v>
+      </c>
+      <c r="J66" t="n">
+        <v>321</v>
+      </c>
+      <c r="K66" t="n">
+        <v>69.49927411308663</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2572187610.910756</v>
+        <v>2794568800.290273</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08068350482357506</v>
+        <v>0.09815334396887231</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03840683394142042</v>
+        <v>0.04356616990544262</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4188915769.087796</v>
+        <v>4028047543.462966</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1113751604746501</v>
+        <v>0.1423081510664311</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03143107566271511</v>
+        <v>0.03640628668283211</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>174</v>
+      </c>
+      <c r="J68" t="n">
+        <v>321</v>
+      </c>
+      <c r="K68" t="n">
+        <v>74.22396891592255</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2387923228.376448</v>
+        <v>1900872118.810751</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1324530031557134</v>
+        <v>0.1336883205972554</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05883088240105485</v>
+        <v>0.05648420666400746</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2899,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2915560253.193104</v>
+        <v>2328641302.359276</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06902986545707547</v>
+        <v>0.09924818794500705</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0459147407440197</v>
+        <v>0.03974622162033183</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>48</v>
+      </c>
+      <c r="J70" t="n">
+        <v>321</v>
+      </c>
+      <c r="K70" t="n">
+        <v>25.92499622300271</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4979907543.119281</v>
+        <v>4678127709.673449</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1531350708416971</v>
+        <v>0.1310274129702271</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02478296086189404</v>
+        <v>0.03104744357023833</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>238</v>
+      </c>
+      <c r="J71" t="n">
+        <v>321</v>
+      </c>
+      <c r="K71" t="n">
+        <v>74.39660514402192</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2206926115.226301</v>
+        <v>1394074820.111611</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06877988682220361</v>
+        <v>0.08503353545416836</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04066955757066849</v>
+        <v>0.05015124246335773</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2993077364.341133</v>
+        <v>3252530725.500966</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0998358448272141</v>
+        <v>0.0884618296304814</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03901675435774038</v>
+        <v>0.04986757094687158</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2848763742.349176</v>
+        <v>3031332598.953287</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1557008996325577</v>
+        <v>0.1333982818035039</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0313665626562326</v>
+        <v>0.03018354808320771</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>83</v>
+      </c>
+      <c r="J74" t="n">
+        <v>315</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2416072584.082815</v>
+        <v>1764891075.595357</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1051562785276514</v>
+        <v>0.1279646926155195</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02742141313702194</v>
+        <v>0.03705751247084387</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4251880611.233804</v>
+        <v>5331918543.700233</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07902710824745915</v>
+        <v>0.08525720697721627</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02129377052708485</v>
+        <v>0.03349160681456367</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>152</v>
+      </c>
+      <c r="J76" t="n">
+        <v>321</v>
+      </c>
+      <c r="K76" t="n">
+        <v>71.71557506628021</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1922242052.627573</v>
+        <v>1786180996.815618</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1362508166335547</v>
+        <v>0.1369711835892968</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02187623652302427</v>
+        <v>0.02835041517383138</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3633252120.080571</v>
+        <v>3201999453.51569</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08648599926685249</v>
+        <v>0.1023896476382156</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04984914033847194</v>
+        <v>0.0503437938986411</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>159</v>
+      </c>
+      <c r="J78" t="n">
+        <v>321</v>
+      </c>
+      <c r="K78" t="n">
+        <v>48.02483733041526</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3228,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1828777866.897019</v>
+        <v>1609891886.648269</v>
       </c>
       <c r="F79" t="n">
-        <v>0.171873155422333</v>
+        <v>0.1403566938694212</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03809206804571168</v>
+        <v>0.03868552627520657</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5462727302.513091</v>
+        <v>4589624299.441723</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0787948818310904</v>
+        <v>0.06891342002239315</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0336650462962621</v>
+        <v>0.0361708468102086</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>157</v>
+      </c>
+      <c r="J80" t="n">
+        <v>322</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3393397596.903653</v>
+        <v>3428461651.337783</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1126222158915137</v>
+        <v>0.09251133367453643</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02185407629367947</v>
+        <v>0.02378833193161939</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>148</v>
+      </c>
+      <c r="J81" t="n">
+        <v>319</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4928717826.710746</v>
+        <v>4179352590.746034</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1883376280996722</v>
+        <v>0.1407763732981684</v>
       </c>
       <c r="G82" t="n">
-        <v>0.023667710754073</v>
+        <v>0.02701621531468049</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>232</v>
+      </c>
+      <c r="J82" t="n">
+        <v>322</v>
+      </c>
+      <c r="K82" t="n">
+        <v>75.07092429739838</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1883206798.937059</v>
+        <v>1985074744.842344</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1086102718967319</v>
+        <v>0.1403851942861616</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03990254649269294</v>
+        <v>0.04420959771514231</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2339322765.366645</v>
+        <v>2299199302.289836</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09035388214560125</v>
+        <v>0.1147465010660873</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04291823627836854</v>
+        <v>0.04025603279195858</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2595656571.202644</v>
+        <v>3559363178.194839</v>
       </c>
       <c r="F85" t="n">
-        <v>0.127917379720883</v>
+        <v>0.1381821384150831</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04505900954822791</v>
+        <v>0.04986437847786662</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>42</v>
+      </c>
+      <c r="J85" t="n">
+        <v>322</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2705796375.095077</v>
+        <v>2126546524.782148</v>
       </c>
       <c r="F86" t="n">
-        <v>0.13822418532902</v>
+        <v>0.1653427013049583</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02522720667543276</v>
+        <v>0.02526995881852879</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1386548919.785389</v>
+        <v>1346051241.375288</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1501607730431311</v>
+        <v>0.1144919813314724</v>
       </c>
       <c r="G87" t="n">
-        <v>0.037193946314615</v>
+        <v>0.03280808545317822</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3518999423.391859</v>
+        <v>2421941047.891023</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1078289596237177</v>
+        <v>0.1566397200176724</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03847435043185155</v>
+        <v>0.03634578885966136</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>45</v>
+      </c>
+      <c r="J88" t="n">
+        <v>321</v>
+      </c>
+      <c r="K88" t="n">
+        <v>32.12013562574244</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3072276832.679718</v>
+        <v>2375954974.135492</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1506419389207301</v>
+        <v>0.1203811683313292</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03125704227915503</v>
+        <v>0.03775195954581016</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>24</v>
+      </c>
+      <c r="J89" t="n">
+        <v>314</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1938466634.057074</v>
+        <v>1853830796.869022</v>
       </c>
       <c r="F90" t="n">
-        <v>0.131555999149877</v>
+        <v>0.1337288632698169</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05283861960416004</v>
+        <v>0.05243192820026828</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1890699815.736629</v>
+        <v>1526058421.7324</v>
       </c>
       <c r="F91" t="n">
-        <v>0.121147561859302</v>
+        <v>0.1192453165865038</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05126654592408114</v>
+        <v>0.05782061969369468</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2417762366.980679</v>
+        <v>2411704840.434274</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08111641468134846</v>
+        <v>0.110310534805009</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03631039479253154</v>
+        <v>0.03924827954468273</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4714450896.349524</v>
+        <v>3808163701.843497</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1372706837349382</v>
+        <v>0.1404700127688779</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0467350670315887</v>
+        <v>0.05353575044596147</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>146</v>
+      </c>
+      <c r="J93" t="n">
+        <v>321</v>
+      </c>
+      <c r="K93" t="n">
+        <v>66.31596389925222</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1611981287.049342</v>
+        <v>2205378601.570395</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1448658048580783</v>
+        <v>0.1202762337294489</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03944800072283956</v>
+        <v>0.03856805585804578</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2942599542.802294</v>
+        <v>3003032745.188892</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1314789045352933</v>
+        <v>0.09141148074539462</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04690672654898744</v>
+        <v>0.04356451525288906</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1849310543.523026</v>
+        <v>1847647799.689883</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1195060629476587</v>
+        <v>0.0946669156138947</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03345520159442824</v>
+        <v>0.03974197541547304</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5072705495.254697</v>
+        <v>3463683226.854614</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1078983201313714</v>
+        <v>0.1140309326966108</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02683192447438473</v>
+        <v>0.02013574003288044</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>164</v>
+      </c>
+      <c r="J97" t="n">
+        <v>320</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3419108979.635775</v>
+        <v>2737339271.162653</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0972417211157969</v>
+        <v>0.1200786031522806</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02911698233672142</v>
+        <v>0.02919957976316507</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>79</v>
+      </c>
+      <c r="J98" t="n">
+        <v>317</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2595800219.173826</v>
+        <v>2721861656.426656</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09347549768820214</v>
+        <v>0.1038011802019354</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03324342336786471</v>
+        <v>0.03123933374948097</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2933339422.270532</v>
+        <v>4736536736.267696</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1282797268418921</v>
+        <v>0.1661491619249997</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01936621932329432</v>
+        <v>0.01844315381454585</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>142</v>
+      </c>
+      <c r="J100" t="n">
+        <v>322</v>
+      </c>
+      <c r="K100" t="n">
+        <v>75.37730413374659</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3236318647.353215</v>
+        <v>3100494912.498418</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1887754843603303</v>
+        <v>0.1820903751409503</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05319126408302676</v>
+        <v>0.03832652730839029</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
